--- a/Testing/Ash Chamber Sensor Testing/OPCN2 Particle Distribution Clean Lab Test.xlsx
+++ b/Testing/Ash Chamber Sensor Testing/OPCN2 Particle Distribution Clean Lab Test.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Outliers removed" sheetId="1" r:id="rId1"/>
-    <sheet name="With outliers" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>0.38 - 1.05 Micron</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Total (ug/m3)</t>
+  </si>
+  <si>
+    <t>Raw Data:</t>
   </si>
 </sst>
 </file>
@@ -518,9 +521,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5587,7 +5591,5205 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Raw Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Data'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.38 - 1.05 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Raw Data'!$A$3:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>116.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>118.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>122.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>124.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>137.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>139.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>144.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>150.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>152.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>154.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>159.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>161.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>165.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>169.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>178.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>182.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>184.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>189.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>191.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>195.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>197.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>202.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>204.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>206.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>208.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>212.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>217.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>219.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>221.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>223.6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>225.7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>227.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>232.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>238.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>240.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>242.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>245.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>247.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>249.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>253.7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>260.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>262.3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>264.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>266.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>268.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>270.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>275.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>277.3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>279.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>281.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>283.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>285.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>290.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>292.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>294.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>300.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>303.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>305.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>307.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>309.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>311.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>313.8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>318.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>320.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>322.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>324.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>326.7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>328.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>333.2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>335.3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>337.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>339.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>341.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>343.9</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>346.1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>348.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>350.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>352.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>354.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>356.8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>361.1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>363.3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>365.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>367.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>369.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>371.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>378.3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>380.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>382.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>384.8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>386.9</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>389.1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>391.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>393.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>395.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>397.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>399.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>401.9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>404.1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>406.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>408.4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>410.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>412.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Raw Data'!$B$3:$B$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5112-4E1A-8F9F-E39569FB0BB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Data'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.05 - 3 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Raw Data'!$A$3:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>116.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>118.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>122.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>124.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>137.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>139.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>144.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>150.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>152.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>154.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>159.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>161.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>165.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>169.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>178.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>182.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>184.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>189.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>191.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>195.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>197.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>202.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>204.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>206.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>208.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>212.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>217.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>219.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>221.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>223.6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>225.7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>227.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>232.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>238.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>240.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>242.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>245.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>247.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>249.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>253.7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>260.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>262.3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>264.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>266.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>268.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>270.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>275.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>277.3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>279.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>281.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>283.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>285.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>290.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>292.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>294.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>300.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>303.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>305.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>307.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>309.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>311.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>313.8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>318.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>320.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>322.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>324.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>326.7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>328.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>333.2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>335.3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>337.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>339.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>341.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>343.9</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>346.1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>348.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>350.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>352.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>354.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>356.8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>361.1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>363.3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>365.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>367.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>369.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>371.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>378.3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>380.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>382.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>384.8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>386.9</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>389.1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>391.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>393.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>395.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>397.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>399.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>401.9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>404.1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>406.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>408.4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>410.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>412.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Raw Data'!$C$3:$C$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5112-4E1A-8F9F-E39569FB0BB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Data'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 - 10 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Raw Data'!$A$3:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>116.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>118.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>122.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>124.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>137.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>139.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>144.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>150.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>152.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>154.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>159.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>161.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>165.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>169.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>178.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>182.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>184.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>189.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>191.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>195.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>197.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>202.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>204.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>206.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>208.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>212.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>217.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>219.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>221.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>223.6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>225.7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>227.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>232.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>238.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>240.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>242.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>245.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>247.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>249.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>253.7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>260.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>262.3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>264.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>266.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>268.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>270.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>275.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>277.3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>279.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>281.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>283.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>285.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>290.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>292.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>294.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>300.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>303.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>305.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>307.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>309.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>311.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>313.8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>318.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>320.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>322.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>324.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>326.7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>328.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>333.2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>335.3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>337.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>339.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>341.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>343.9</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>346.1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>348.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>350.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>352.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>354.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>356.8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>361.1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>363.3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>365.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>367.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>369.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>371.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>378.3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>380.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>382.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>384.8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>386.9</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>389.1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>391.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>393.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>395.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>397.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>399.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>401.9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>404.1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>406.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>408.4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>410.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>412.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Raw Data'!$D$3:$D$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.35</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.44</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41.74</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>28.04</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>28.39</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5112-4E1A-8F9F-E39569FB0BB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Data'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 - 17.5 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Raw Data'!$A$3:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>116.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>118.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>122.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>124.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>137.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>139.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>144.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>150.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>152.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>154.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>159.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>161.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>165.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>169.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>178.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>182.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>184.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>189.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>191.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>195.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>197.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>202.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>204.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>206.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>208.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>212.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>217.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>219.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>221.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>223.6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>225.7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>227.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>232.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>238.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>240.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>242.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>245.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>247.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>249.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>253.7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>260.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>262.3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>264.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>266.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>268.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>270.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>275.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>277.3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>279.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>281.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>283.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>285.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>290.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>292.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>294.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>300.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>303.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>305.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>307.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>309.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>311.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>313.8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>318.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>320.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>322.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>324.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>326.7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>328.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>333.2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>335.3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>337.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>339.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>341.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>343.9</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>346.1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>348.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>350.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>352.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>354.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>356.8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>361.1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>363.3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>365.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>367.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>369.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>371.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>376.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>378.3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>380.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>382.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>384.8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>386.9</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>389.1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>391.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>393.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>395.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>397.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>399.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>401.9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>404.1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>406.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>408.4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>410.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>412.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Raw Data'!$E$3:$E$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>251.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>396.6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5112-4E1A-8F9F-E39569FB0BB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="407794128"/>
+        <c:axId val="407798392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407794128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1200"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407798392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407798392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1200"/>
+                  <a:t>Particle Concentration (ug/m3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407794128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6132,6 +11334,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6169,42 +11876,34 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>432605</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52742</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1876425" y="238125"/>
-          <a:ext cx="10748180" cy="6291617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6509,8 +12208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10227,15 +15926,3867 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6.5</v>
+      </c>
+      <c r="B4">
+        <v>1.03</v>
+      </c>
+      <c r="C4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B5">
+        <v>0.73</v>
+      </c>
+      <c r="C5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10.8</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.37</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <v>1.81</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15.1</v>
+      </c>
+      <c r="B8">
+        <v>0.95</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17.3</v>
+      </c>
+      <c r="B9">
+        <v>0.43</v>
+      </c>
+      <c r="C9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10.35</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21.6</v>
+      </c>
+      <c r="B11">
+        <v>0.64</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23.7</v>
+      </c>
+      <c r="B12">
+        <v>0.82</v>
+      </c>
+      <c r="C12">
+        <v>0.13</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25.9</v>
+      </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>0.15</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0.41</v>
+      </c>
+      <c r="C14">
+        <v>0.13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30.2</v>
+      </c>
+      <c r="B15">
+        <v>0.68</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="B16">
+        <v>1.29</v>
+      </c>
+      <c r="C16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>34.5</v>
+      </c>
+      <c r="B17">
+        <v>0.68</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>36.6</v>
+      </c>
+      <c r="B18">
+        <v>0.94</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="B19">
+        <v>0.53</v>
+      </c>
+      <c r="C19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D19">
+        <v>4.88</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40.9</v>
+      </c>
+      <c r="B20">
+        <v>0.94</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>43.1</v>
+      </c>
+      <c r="B21">
+        <v>0.67</v>
+      </c>
+      <c r="C21">
+        <v>0.42</v>
+      </c>
+      <c r="D21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>45.2</v>
+      </c>
+      <c r="B22">
+        <v>0.67</v>
+      </c>
+      <c r="C22">
+        <v>0.13</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>47.3</v>
+      </c>
+      <c r="B23">
+        <v>1.19</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>49.5</v>
+      </c>
+      <c r="B24">
+        <v>0.66</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>51.6</v>
+      </c>
+      <c r="B25">
+        <v>0.39</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>53.8</v>
+      </c>
+      <c r="B26">
+        <v>0.91</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>55.9</v>
+      </c>
+      <c r="B27">
+        <v>0.65</v>
+      </c>
+      <c r="C27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D27">
+        <v>25.74</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>58.1</v>
+      </c>
+      <c r="B28">
+        <v>0.72</v>
+      </c>
+      <c r="C28">
+        <v>0.26</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60.2</v>
+      </c>
+      <c r="B29">
+        <v>0.65</v>
+      </c>
+      <c r="C29">
+        <v>0.25</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>62.4</v>
+      </c>
+      <c r="B30">
+        <v>1.04</v>
+      </c>
+      <c r="C30">
+        <v>0.13</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>64.5</v>
+      </c>
+      <c r="B31">
+        <v>1.23</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>66.7</v>
+      </c>
+      <c r="B32">
+        <v>1.04</v>
+      </c>
+      <c r="C32">
+        <v>0.23</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>68.8</v>
+      </c>
+      <c r="B33">
+        <v>0.26</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1.59</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>0.71</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="B35">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D35">
+        <v>1.57</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>75.3</v>
+      </c>
+      <c r="B36">
+        <v>0.64</v>
+      </c>
+      <c r="C36">
+        <v>0.26</v>
+      </c>
+      <c r="D36">
+        <v>4.68</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="B37">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.12</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="B38">
+        <v>0.52</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>81.7</v>
+      </c>
+      <c r="B39">
+        <v>0.7</v>
+      </c>
+      <c r="C39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>83.9</v>
+      </c>
+      <c r="B40">
+        <v>0.63</v>
+      </c>
+      <c r="C40">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>86</v>
+      </c>
+      <c r="B41">
+        <v>0.69</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>88.2</v>
+      </c>
+      <c r="B42">
+        <v>0.76</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>90.3</v>
+      </c>
+      <c r="B43">
+        <v>0.74</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>92.5</v>
+      </c>
+      <c r="B44">
+        <v>0.82</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>94.6</v>
+      </c>
+      <c r="B45">
+        <v>0.89</v>
+      </c>
+      <c r="C45">
+        <v>0.45</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>96.8</v>
+      </c>
+      <c r="B46">
+        <v>0.69</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>98.9</v>
+      </c>
+      <c r="B47">
+        <v>0.62</v>
+      </c>
+      <c r="C47">
+        <v>0.22</v>
+      </c>
+      <c r="D47">
+        <v>27.35</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>28.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>101.1</v>
+      </c>
+      <c r="B48">
+        <v>0.87</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>103.2</v>
+      </c>
+      <c r="B49">
+        <v>0.44</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>105.4</v>
+      </c>
+      <c r="B50">
+        <v>0.38</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>107.5</v>
+      </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <v>0.12</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>109.7</v>
+      </c>
+      <c r="B52">
+        <v>0.68</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>111.8</v>
+      </c>
+      <c r="B53">
+        <v>0.75</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1.54</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>114</v>
+      </c>
+      <c r="B54">
+        <v>0.76</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>251.6</v>
+      </c>
+      <c r="F54">
+        <v>252.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>116.1</v>
+      </c>
+      <c r="B55">
+        <v>0.51</v>
+      </c>
+      <c r="C55">
+        <v>0.23</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>118.3</v>
+      </c>
+      <c r="B56">
+        <v>0.77</v>
+      </c>
+      <c r="C56">
+        <v>0.35</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>120.4</v>
+      </c>
+      <c r="B57">
+        <v>0.7</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>122.6</v>
+      </c>
+      <c r="B58">
+        <v>0.89</v>
+      </c>
+      <c r="C58">
+        <v>0.13</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>124.7</v>
+      </c>
+      <c r="B59">
+        <v>0.38</v>
+      </c>
+      <c r="C59">
+        <v>0.36</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>126.9</v>
+      </c>
+      <c r="B60">
+        <v>0.52</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>129</v>
+      </c>
+      <c r="B61">
+        <v>0.7</v>
+      </c>
+      <c r="C61">
+        <v>0.12</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="B62">
+        <v>0.44</v>
+      </c>
+      <c r="C62">
+        <v>0.12</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="B63">
+        <v>0.63</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>135.5</v>
+      </c>
+      <c r="B64">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>137.6</v>
+      </c>
+      <c r="B65">
+        <v>0.32</v>
+      </c>
+      <c r="C65">
+        <v>0.12</v>
+      </c>
+      <c r="D65">
+        <v>12.44</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="B66">
+        <v>0.44</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1.55</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>61.36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>141.9</v>
+      </c>
+      <c r="B67">
+        <v>0.51</v>
+      </c>
+      <c r="C67">
+        <v>0.12</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>144.1</v>
+      </c>
+      <c r="B68">
+        <v>0.38</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>148.4</v>
+      </c>
+      <c r="B70">
+        <v>0.37</v>
+      </c>
+      <c r="C70">
+        <v>0.12</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>150.5</v>
+      </c>
+      <c r="B71">
+        <v>0.44</v>
+      </c>
+      <c r="C71">
+        <v>0.12</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="B72">
+        <v>0.37</v>
+      </c>
+      <c r="C72">
+        <v>0.12</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="B73">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C73">
+        <v>0.24</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>157</v>
+      </c>
+      <c r="B74">
+        <v>0.19</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>159.1</v>
+      </c>
+      <c r="B75">
+        <v>0.37</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="B76">
+        <v>0.37</v>
+      </c>
+      <c r="C76">
+        <v>0.12</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>163.4</v>
+      </c>
+      <c r="B77">
+        <v>0.5</v>
+      </c>
+      <c r="C77">
+        <v>0.22</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>165.6</v>
+      </c>
+      <c r="B78">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C78">
+        <v>0.12</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>167.7</v>
+      </c>
+      <c r="B79">
+        <v>0.44</v>
+      </c>
+      <c r="C79">
+        <v>0.25</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>169.8</v>
+      </c>
+      <c r="B80">
+        <v>0.19</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>172</v>
+      </c>
+      <c r="B81">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C81">
+        <v>0.12</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>174.1</v>
+      </c>
+      <c r="B82">
+        <v>0.19</v>
+      </c>
+      <c r="C82">
+        <v>0.13</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>176.3</v>
+      </c>
+      <c r="B83">
+        <v>0.38</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>178.4</v>
+      </c>
+      <c r="B84">
+        <v>0.38</v>
+      </c>
+      <c r="C84">
+        <v>0.12</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>180.6</v>
+      </c>
+      <c r="B85">
+        <v>0.51</v>
+      </c>
+      <c r="C85">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>182.7</v>
+      </c>
+      <c r="B86">
+        <v>0.77</v>
+      </c>
+      <c r="C86">
+        <v>0.13</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>184.9</v>
+      </c>
+      <c r="B87">
+        <v>0.77</v>
+      </c>
+      <c r="C87">
+        <v>0.63</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>187</v>
+      </c>
+      <c r="B88">
+        <v>0.32</v>
+      </c>
+      <c r="C88">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>189.2</v>
+      </c>
+      <c r="B89">
+        <v>0.51</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>191.3</v>
+      </c>
+      <c r="B90">
+        <v>0.39</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>193.5</v>
+      </c>
+      <c r="B91">
+        <v>0.33</v>
+      </c>
+      <c r="C91">
+        <v>0.63</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>195.6</v>
+      </c>
+      <c r="B92">
+        <v>0.59</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>197.8</v>
+      </c>
+      <c r="B93">
+        <v>0.39</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>199.9</v>
+      </c>
+      <c r="B94">
+        <v>0.52</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>202.1</v>
+      </c>
+      <c r="B95">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C95">
+        <v>0.13</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>204.2</v>
+      </c>
+      <c r="B96">
+        <v>0.52</v>
+      </c>
+      <c r="C96">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>206.4</v>
+      </c>
+      <c r="B97">
+        <v>0.46</v>
+      </c>
+      <c r="C97">
+        <v>0.13</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>208.5</v>
+      </c>
+      <c r="B98">
+        <v>0.72</v>
+      </c>
+      <c r="C98">
+        <v>0.13</v>
+      </c>
+      <c r="D98">
+        <v>1.61</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>210.7</v>
+      </c>
+      <c r="B99">
+        <v>0.53</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>212.8</v>
+      </c>
+      <c r="B100">
+        <v>0.13</v>
+      </c>
+      <c r="C100">
+        <v>0.23</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>215</v>
+      </c>
+      <c r="B101">
+        <v>0.33</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>217.1</v>
+      </c>
+      <c r="B102">
+        <v>0.46</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>219.3</v>
+      </c>
+      <c r="B103">
+        <v>0.4</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>221.4</v>
+      </c>
+      <c r="B104">
+        <v>0.4</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>223.6</v>
+      </c>
+      <c r="B105">
+        <v>0.33</v>
+      </c>
+      <c r="C105">
+        <v>0.23</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>225.7</v>
+      </c>
+      <c r="B106">
+        <v>0.8</v>
+      </c>
+      <c r="C106">
+        <v>0.26</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>227.9</v>
+      </c>
+      <c r="B107">
+        <v>0.2</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>230</v>
+      </c>
+      <c r="B108">
+        <v>0.39</v>
+      </c>
+      <c r="C108">
+        <v>0.23</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>232.2</v>
+      </c>
+      <c r="B109">
+        <v>0.92</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>234.3</v>
+      </c>
+      <c r="B110">
+        <v>0.2</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>236.5</v>
+      </c>
+      <c r="B111">
+        <v>0.59</v>
+      </c>
+      <c r="C111">
+        <v>0.13</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>238.6</v>
+      </c>
+      <c r="B112">
+        <v>0.72</v>
+      </c>
+      <c r="C112">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>240.8</v>
+      </c>
+      <c r="B113">
+        <v>0.77</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>242.9</v>
+      </c>
+      <c r="B114">
+        <v>0.77</v>
+      </c>
+      <c r="C114">
+        <v>0.35</v>
+      </c>
+      <c r="D114">
+        <v>1.58</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>245.1</v>
+      </c>
+      <c r="B115">
+        <v>0.45</v>
+      </c>
+      <c r="C115">
+        <v>0.45</v>
+      </c>
+      <c r="D115">
+        <v>4.71</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>247.2</v>
+      </c>
+      <c r="B116">
+        <v>0.32</v>
+      </c>
+      <c r="C116">
+        <v>0.25</v>
+      </c>
+      <c r="D116">
+        <v>1.58</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>249.4</v>
+      </c>
+      <c r="B117">
+        <v>0.64</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>251.5</v>
+      </c>
+      <c r="B118">
+        <v>0.71</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>253.7</v>
+      </c>
+      <c r="B119">
+        <v>0.32</v>
+      </c>
+      <c r="C119">
+        <v>0.13</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>255.8</v>
+      </c>
+      <c r="B120">
+        <v>0.77</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>258</v>
+      </c>
+      <c r="B121">
+        <v>0.45</v>
+      </c>
+      <c r="C121">
+        <v>0.13</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>260.10000000000002</v>
+      </c>
+      <c r="B122">
+        <v>0.89</v>
+      </c>
+      <c r="C122">
+        <v>0.12</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>262.3</v>
+      </c>
+      <c r="B123">
+        <v>0.89</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="B124">
+        <v>0.89</v>
+      </c>
+      <c r="C124">
+        <v>0.12</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="B125">
+        <v>0.44</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>1.56</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>62.16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>268.7</v>
+      </c>
+      <c r="B126">
+        <v>0.25</v>
+      </c>
+      <c r="C126">
+        <v>0.5</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>61.35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="B127">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>1.56</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>273</v>
+      </c>
+      <c r="B128">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C128">
+        <v>0.39</v>
+      </c>
+      <c r="D128">
+        <v>41.74</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>43.14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>275.2</v>
+      </c>
+      <c r="B129">
+        <v>0.75</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>277.3</v>
+      </c>
+      <c r="B130">
+        <v>0.88</v>
+      </c>
+      <c r="C130">
+        <v>0.44</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>396.6</v>
+      </c>
+      <c r="F130">
+        <v>398.37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="B131">
+        <v>0.69</v>
+      </c>
+      <c r="C131">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="B132">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C132">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>283.7</v>
+      </c>
+      <c r="B133">
+        <v>0.31</v>
+      </c>
+      <c r="C133">
+        <v>0.12</v>
+      </c>
+      <c r="D133">
+        <v>4.58</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="B134">
+        <v>0.68</v>
+      </c>
+      <c r="C134">
+        <v>0.38</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>288</v>
+      </c>
+      <c r="B135">
+        <v>0.5</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>290.2</v>
+      </c>
+      <c r="B136">
+        <v>0.13</v>
+      </c>
+      <c r="C136">
+        <v>0.12</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>292.3</v>
+      </c>
+      <c r="B137">
+        <v>0.74</v>
+      </c>
+      <c r="C137">
+        <v>0.12</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>59.89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>294.5</v>
+      </c>
+      <c r="B138">
+        <v>0.74</v>
+      </c>
+      <c r="C138">
+        <v>0.24</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="B139">
+        <v>0.31</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>298.8</v>
+      </c>
+      <c r="B140">
+        <v>0.38</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="B141">
+        <v>1.01</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>303.10000000000002</v>
+      </c>
+      <c r="B142">
+        <v>0.44</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>305.2</v>
+      </c>
+      <c r="B143">
+        <v>0.44</v>
+      </c>
+      <c r="C143">
+        <v>0.12</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="B144">
+        <v>0.19</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>309.5</v>
+      </c>
+      <c r="B145">
+        <v>0.38</v>
+      </c>
+      <c r="C145">
+        <v>0.34</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>311.7</v>
+      </c>
+      <c r="B146">
+        <v>0.06</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>313.8</v>
+      </c>
+      <c r="B147">
+        <v>0.76</v>
+      </c>
+      <c r="C147">
+        <v>0.25</v>
+      </c>
+      <c r="D147">
+        <v>12.48</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>316</v>
+      </c>
+      <c r="B148">
+        <v>0.13</v>
+      </c>
+      <c r="C148">
+        <v>0.25</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="B149">
+        <v>0.44</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>320.3</v>
+      </c>
+      <c r="B150">
+        <v>0.25</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="B151">
+        <v>0.44</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>324.60000000000002</v>
+      </c>
+      <c r="B152">
+        <v>0.7</v>
+      </c>
+      <c r="C152">
+        <v>0.12</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>326.7</v>
+      </c>
+      <c r="B153">
+        <v>0.26</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>328.9</v>
+      </c>
+      <c r="B154">
+        <v>0.32</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>331</v>
+      </c>
+      <c r="B155">
+        <v>0.46</v>
+      </c>
+      <c r="C155">
+        <v>0.46</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>333.2</v>
+      </c>
+      <c r="B156">
+        <v>0.52</v>
+      </c>
+      <c r="C156">
+        <v>0.26</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>335.3</v>
+      </c>
+      <c r="B157">
+        <v>0.52</v>
+      </c>
+      <c r="C157">
+        <v>0.13</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>337.5</v>
+      </c>
+      <c r="B158">
+        <v>0.77</v>
+      </c>
+      <c r="C158">
+        <v>0.25</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>339.6</v>
+      </c>
+      <c r="B159">
+        <v>0.51</v>
+      </c>
+      <c r="C159">
+        <v>0.38</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>61.68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>341.8</v>
+      </c>
+      <c r="B160">
+        <v>0.64</v>
+      </c>
+      <c r="C160">
+        <v>0.35</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>343.9</v>
+      </c>
+      <c r="B161">
+        <v>0.45</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>346.1</v>
+      </c>
+      <c r="B162">
+        <v>0.51</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>348.2</v>
+      </c>
+      <c r="B163">
+        <v>0.51</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>350.4</v>
+      </c>
+      <c r="B164">
+        <v>0.26</v>
+      </c>
+      <c r="C164">
+        <v>0.13</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>352.5</v>
+      </c>
+      <c r="B165">
+        <v>0.38</v>
+      </c>
+      <c r="C165">
+        <v>0.26</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>354.7</v>
+      </c>
+      <c r="B166">
+        <v>0.38</v>
+      </c>
+      <c r="C166">
+        <v>0.35</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>356.8</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>359</v>
+      </c>
+      <c r="B168">
+        <v>0.39</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>361.1</v>
+      </c>
+      <c r="B169">
+        <v>0.39</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>363.3</v>
+      </c>
+      <c r="B170">
+        <v>0.13</v>
+      </c>
+      <c r="C170">
+        <v>0.13</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>365.4</v>
+      </c>
+      <c r="B171">
+        <v>0.39</v>
+      </c>
+      <c r="C171">
+        <v>0.13</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>367.6</v>
+      </c>
+      <c r="B172">
+        <v>0.33</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>1.6</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>369.7</v>
+      </c>
+      <c r="B173">
+        <v>0.33</v>
+      </c>
+      <c r="C173">
+        <v>0.48</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>371.9</v>
+      </c>
+      <c r="B174">
+        <v>0.52</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>374</v>
+      </c>
+      <c r="B175">
+        <v>0.45</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>376.2</v>
+      </c>
+      <c r="B176">
+        <v>0.59</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>378.3</v>
+      </c>
+      <c r="B177">
+        <v>0.59</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>380.5</v>
+      </c>
+      <c r="B178">
+        <v>0.46</v>
+      </c>
+      <c r="C178">
+        <v>0.13</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>382.6</v>
+      </c>
+      <c r="B179">
+        <v>0.33</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>384.8</v>
+      </c>
+      <c r="B180">
+        <v>0.39</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>386.9</v>
+      </c>
+      <c r="B181">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C181">
+        <v>0.13</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>389.1</v>
+      </c>
+      <c r="B182">
+        <v>0.64</v>
+      </c>
+      <c r="C182">
+        <v>0.13</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>391.2</v>
+      </c>
+      <c r="B183">
+        <v>0.13</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>393.4</v>
+      </c>
+      <c r="B184">
+        <v>0.13</v>
+      </c>
+      <c r="C184">
+        <v>0.13</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>395.5</v>
+      </c>
+      <c r="B185">
+        <v>0.19</v>
+      </c>
+      <c r="C185">
+        <v>0.25</v>
+      </c>
+      <c r="D185">
+        <v>28.04</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>397.6</v>
+      </c>
+      <c r="B186">
+        <v>0.77</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>28.39</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>29.39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>399.8</v>
+      </c>
+      <c r="B187">
+        <v>0.39</v>
+      </c>
+      <c r="C187">
+        <v>0.25</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>401.9</v>
+      </c>
+      <c r="B188">
+        <v>0.64</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>404.1</v>
+      </c>
+      <c r="B189">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C189">
+        <v>0.13</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>406.2</v>
+      </c>
+      <c r="B190">
+        <v>0.13</v>
+      </c>
+      <c r="C190">
+        <v>0.12</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>408.4</v>
+      </c>
+      <c r="B191">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C191">
+        <v>0.12</v>
+      </c>
+      <c r="D191">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>410.5</v>
+      </c>
+      <c r="B192">
+        <v>0.44</v>
+      </c>
+      <c r="C192">
+        <v>0.25</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>412.7</v>
+      </c>
+      <c r="B193">
+        <v>0.38</v>
+      </c>
+      <c r="C193">
+        <v>0.35</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0.73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>